--- a/日経社説ー春秋/株主との対話促す会社法に.xlsx
+++ b/日経社説ー春秋/株主との対話促す会社法に.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ywu\Desktop\translation\日経社説ー春秋\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16860" windowHeight="10560"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,81 +19,101 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
-  <si>
-    <t>充実</t>
-  </si>
-  <si>
-    <t>兼ねる</t>
-  </si>
-  <si>
-    <t>行使</t>
-  </si>
-  <si>
-    <t>交える</t>
-  </si>
-  <si>
-    <t>招集</t>
-  </si>
-  <si>
-    <t>多岐</t>
-  </si>
-  <si>
-    <t>じゅうじつ</t>
-  </si>
-  <si>
-    <t>足りない点や欠陥がなく、十分に備わっていること。内容が豊富であること。</t>
-  </si>
-  <si>
-    <t>かねる</t>
-  </si>
-  <si>
-    <t>しょうようとしてもできない。</t>
-  </si>
-  <si>
-    <t>こうし</t>
-  </si>
-  <si>
-    <t>武力・権力・権利などを実際に用いること。</t>
-  </si>
-  <si>
-    <t>会社などが、利益金の一部を出資者や株主に配り与えること。また、その金。</t>
-  </si>
-  <si>
-    <t>配当</t>
-  </si>
-  <si>
-    <t>はいとう</t>
-  </si>
-  <si>
-    <t>まじえる</t>
-  </si>
-  <si>
-    <t>一緒にいれる。異質の物のなかに加える。</t>
-  </si>
-  <si>
-    <t>しょうしゅう</t>
-  </si>
-  <si>
-    <t>地方議会、社団法人の社員総会、株式会社の株主総会などの合議体の構成員に対し集合を要求する行為。</t>
-  </si>
-  <si>
-    <t>たき</t>
-  </si>
-  <si>
-    <t>物事が多方面に関わりを持つ・こと（さま）。</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+  <si>
+    <t>法制審議会（法相の諮問機関）で会社法改正の議論が始まる。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>株主が株主総会に議案を提案する権利を乱用しないようにするため措置などが検討の柱だ。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>株主と企業の充実した議論を促すための会社法改正を望む。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日本企業が特に対応に苦慮しているのは、真意を掴みかねる提案だ。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>総会に出席したほかの株主を戸惑わせ、真剣な議論の意欲を削ぎかねない内容と言えるだろう。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海外の例にも目を配り、国際的に違和感のないルールとすることが重要だ。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日本の場合、そう株主の議決権の１％以上、または３００個以上の議決権を六ヶ月以上から持つ株主に、権利行使が認められる。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提案の数に制限はない。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>これに対して米国は一人につき一提案で、取締役の選解任や配当額などの提案を認めていない。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>もちろん、株主提案権の乱用防止とともに、企業や投資家のお利益につながる提案まで出せなくなることがないよう、十分に注意したい。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投資家を交えた丁寧な検討が必要だ。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>また、社外取締役の選任を会社法で義務付けるべきかどうかも検討の対象となる。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>株主と企業が建設的な関係を築くためにはどうしたらよいか。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>それが多岐にわたる議論の出発点だ。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>株主提案権は少数株主の声を経営に反映させる重要な手段だ。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中身が細かすぎたり真意がはっきりしなかったりする提案をある程度制限するのは仕方ないとしても、建設的な意見が報じ込まれるうなことがあってはならない。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>過去には野村ホールディングスの総会で「トイレをすべて和式にする」「取締役を『クリスタル役』とする」などの提案が出されたことがある。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常識に照らして非生産的な提案を減らすために、株主提案に必要な議決権の保有比率を引き上げたり提案数を限ったりすることは、検討に値する。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法制審では、企業がネットを通じて総会の召集通知資料を提供しやすくする制度改正も話し合われる。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -122,11 +137,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -184,7 +202,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -219,7 +237,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -396,105 +414,125 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" customWidth="1"/>
+    <col min="1" max="1" width="74.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.75" customWidth="1"/>
+    <col min="3" max="3" width="21.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:1" ht="27">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="27">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="27">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="27">
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="27">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="27">
+      <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="13" spans="1:1" ht="27">
+      <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="14" spans="1:1" ht="27">
+      <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="15" spans="1:1">
+      <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="16" spans="1:1" ht="27">
+      <c r="A16" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="18" spans="1:1">
+      <c r="A18" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>